--- a/sheet.xlsx
+++ b/sheet.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26130"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26227"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\code\PycharmProjects\dealExcel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F73DC89C-7ACC-4B23-8D39-213609CF3D10}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{97EE4F61-E939-40DC-A580-CE7BB6658D6B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="5055" yWindow="645" windowWidth="21975" windowHeight="14955" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="434" uniqueCount="132">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="443" uniqueCount="140">
   <si>
     <t>时标：2023-01-01</t>
   </si>
@@ -418,11 +418,43 @@
     <t>1400.0</t>
   </si>
   <si>
-    <t>startTime</t>
+    <t>峰谷属性</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>endTime</t>
+    <t>开始时间</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>结束时间</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>充放时间（默认2小时，低于2小时的时间长度，使用对应时间长度）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>峰</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>谷</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>平</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>锋</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>最大需量</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>变压器最大容量</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -2165,28 +2197,115 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{64A17560-8940-47AF-8448-C5004F4CC205}">
-  <dimension ref="A1:B2"/>
+  <dimension ref="A1:D8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C9" sqref="C9"/>
+      <selection activeCell="G30" sqref="G29:G30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="4" max="4" width="17.75" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
+        <v>138</v>
+      </c>
+      <c r="B1">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
+        <v>139</v>
+      </c>
+      <c r="B2">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
         <v>130</v>
       </c>
-      <c r="B1">
+      <c r="B3" t="s">
+        <v>131</v>
+      </c>
+      <c r="C3" t="s">
+        <v>132</v>
+      </c>
+      <c r="D3" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
+        <v>135</v>
+      </c>
+      <c r="B4">
+        <v>0</v>
+      </c>
+      <c r="C4">
         <v>8</v>
       </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A2" t="s">
-        <v>131</v>
-      </c>
-      <c r="B2">
+      <c r="D4">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A5" t="s">
+        <v>137</v>
+      </c>
+      <c r="B5">
         <v>8</v>
+      </c>
+      <c r="C5">
+        <v>12</v>
+      </c>
+      <c r="D5">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A6" t="s">
+        <v>136</v>
+      </c>
+      <c r="B6">
+        <v>12</v>
+      </c>
+      <c r="C6">
+        <v>17</v>
+      </c>
+      <c r="D6">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A7" t="s">
+        <v>137</v>
+      </c>
+      <c r="B7">
+        <v>17</v>
+      </c>
+      <c r="C7">
+        <v>21</v>
+      </c>
+      <c r="D7">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A8" t="s">
+        <v>134</v>
+      </c>
+      <c r="B8">
+        <v>21</v>
+      </c>
+      <c r="C8">
+        <v>24</v>
+      </c>
+      <c r="D8">
+        <v>2</v>
       </c>
     </row>
   </sheetData>

--- a/sheet.xlsx
+++ b/sheet.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\code\PycharmProjects\dealExcel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{97EE4F61-E939-40DC-A580-CE7BB6658D6B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FBB032A9-7E2E-4663-BC46-CE571FAEE626}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="5055" yWindow="645" windowWidth="21975" windowHeight="14955" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="4725" yWindow="525" windowWidth="21975" windowHeight="14955" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="A" sheetId="1" r:id="rId1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="443" uniqueCount="140">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="443" uniqueCount="139">
   <si>
     <t>时标：2023-01-01</t>
   </si>
@@ -431,10 +431,6 @@
   </si>
   <si>
     <t>充放时间（默认2小时，低于2小时的时间长度，使用对应时间长度）</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>峰</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -791,7 +787,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:I48"/>
   <sheetViews>
-    <sheetView topLeftCell="A26" workbookViewId="0">
+    <sheetView topLeftCell="A13" workbookViewId="0">
       <selection activeCell="L37" sqref="L37"/>
     </sheetView>
   </sheetViews>
@@ -2200,7 +2196,7 @@
   <dimension ref="A1:D8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G30" sqref="G29:G30"/>
+      <selection activeCell="F17" sqref="F17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -2210,18 +2206,18 @@
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="B1">
-        <v>1000</v>
+        <v>1950</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="B2">
-        <v>1000</v>
+        <v>1950</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.2">
@@ -2240,7 +2236,7 @@
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="B4">
         <v>0</v>
@@ -2249,12 +2245,12 @@
         <v>8</v>
       </c>
       <c r="D4">
-        <v>2</v>
+        <v>100</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="B5">
         <v>8</v>
@@ -2262,13 +2258,10 @@
       <c r="C5">
         <v>12</v>
       </c>
-      <c r="D5">
-        <v>2</v>
-      </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="B6">
         <v>12</v>
@@ -2277,12 +2270,12 @@
         <v>17</v>
       </c>
       <c r="D6">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="B7">
         <v>17</v>
@@ -2296,7 +2289,7 @@
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="B8">
         <v>21</v>
